--- a/~$Obrador cortes 1.xlsx
+++ b/~$Obrador cortes 1.xlsx
@@ -20,7 +20,6 @@
     <sheet name="Fechas" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2130,7 +2129,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A526" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C533" sqref="C533"/>
+      <selection activeCell="C542" sqref="C542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9387,135 +9386,189 @@
         <v>44780</v>
       </c>
       <c r="B532">
-        <v>6366</v>
+        <v>6317</v>
       </c>
       <c r="C532">
-        <v>6479</v>
+        <v>6365</v>
       </c>
       <c r="D532">
-        <f t="shared" si="14"/>
-        <v>113</v>
+        <f>C532-B532</f>
+        <v>48</v>
       </c>
       <c r="E532">
         <f t="shared" si="15"/>
-        <v>22.6</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="533" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>44781</v>
       </c>
+      <c r="B533">
+        <v>6366</v>
+      </c>
+      <c r="C533">
+        <v>6479</v>
+      </c>
       <c r="D533">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>C533-B533</f>
+        <v>113</v>
       </c>
       <c r="E533">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="534" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>44782</v>
       </c>
+      <c r="B534">
+        <v>6480</v>
+      </c>
+      <c r="C534">
+        <v>6585</v>
+      </c>
       <c r="D534">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E534">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="535" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>44783</v>
       </c>
+      <c r="B535">
+        <v>6586</v>
+      </c>
+      <c r="C535">
+        <v>6694</v>
+      </c>
       <c r="D535">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="E535">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="536" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>44784</v>
       </c>
+      <c r="B536">
+        <v>6695</v>
+      </c>
+      <c r="C536">
+        <v>6799</v>
+      </c>
       <c r="D536">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E536">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="537" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>44785</v>
       </c>
+      <c r="B537">
+        <v>6800</v>
+      </c>
+      <c r="C537">
+        <v>6919</v>
+      </c>
       <c r="D537">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="E537">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="538" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>44786</v>
       </c>
+      <c r="B538">
+        <v>6920</v>
+      </c>
+      <c r="C538">
+        <v>7052</v>
+      </c>
       <c r="D538">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="E538">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="539" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>44787</v>
       </c>
+      <c r="B539">
+        <v>7053</v>
+      </c>
+      <c r="C539">
+        <v>7101</v>
+      </c>
       <c r="D539">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E539">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="540" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>44788</v>
       </c>
+      <c r="B540">
+        <v>7102</v>
+      </c>
+      <c r="C540">
+        <v>7211</v>
+      </c>
       <c r="D540">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E540">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="541" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>44789</v>
       </c>
+      <c r="B541">
+        <v>7212</v>
+      </c>
+      <c r="C541">
+        <v>7314</v>
+      </c>
       <c r="D541">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E541">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="542" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11076,7 +11129,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11086,7 +11139,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8">
-        <v>286000</v>
+        <v>141700</v>
       </c>
       <c r="B1" s="8">
         <v>171400</v>
@@ -11095,7 +11148,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
-        <v>277650</v>
+        <v>38500</v>
       </c>
       <c r="B2" s="8">
         <v>106050</v>
@@ -11148,7 +11201,7 @@
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <f>SUM(A1:A12)</f>
-        <v>563650</v>
+        <v>180200</v>
       </c>
       <c r="B13" s="8">
         <f>SUM(B1:B12)</f>

--- a/~$Obrador cortes 1.xlsx
+++ b/~$Obrador cortes 1.xlsx
@@ -1904,10 +1904,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2128,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A526" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C542" sqref="C542"/>
+    <sheetView tabSelected="1" topLeftCell="A529" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E545" sqref="E545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5262,10 +5262,10 @@
       <c r="A300" s="1">
         <v>44562</v>
       </c>
-      <c r="B300" s="17" t="s">
+      <c r="B300" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="C300" s="17"/>
+      <c r="C300" s="18"/>
     </row>
     <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
@@ -7176,12 +7176,12 @@
       <c r="A410" s="1">
         <v>44666</v>
       </c>
-      <c r="B410" s="18" t="s">
+      <c r="B410" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="C410" s="18"/>
-      <c r="D410" s="18"/>
-      <c r="E410" s="18"/>
+      <c r="C410" s="17"/>
+      <c r="D410" s="17"/>
+      <c r="E410" s="17"/>
     </row>
     <row r="411" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
@@ -9575,39 +9575,57 @@
       <c r="A542" s="1">
         <v>44790</v>
       </c>
+      <c r="B542">
+        <v>7315</v>
+      </c>
+      <c r="C542">
+        <v>7428</v>
+      </c>
       <c r="D542">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E542">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="543" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>44791</v>
       </c>
+      <c r="B543">
+        <v>7429</v>
+      </c>
+      <c r="C543">
+        <v>7533</v>
+      </c>
       <c r="D543">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E543">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="544" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>44792</v>
       </c>
+      <c r="B544">
+        <v>7534</v>
+      </c>
+      <c r="C544">
+        <v>7657</v>
+      </c>
       <c r="D544">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="E544">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>D544/6</f>
+        <v>20.5</v>
       </c>
     </row>
     <row r="545" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11097,14 +11115,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A524:C525"/>
-    <mergeCell ref="A491:C492"/>
-    <mergeCell ref="A331:C332"/>
-    <mergeCell ref="A459:C460"/>
-    <mergeCell ref="A426:C427"/>
-    <mergeCell ref="B410:E410"/>
-    <mergeCell ref="A394:C395"/>
-    <mergeCell ref="A361:C362"/>
     <mergeCell ref="A169:C170"/>
     <mergeCell ref="A298:C299"/>
     <mergeCell ref="B300:C300"/>
@@ -11116,6 +11126,14 @@
     <mergeCell ref="A266:C267"/>
     <mergeCell ref="A234:C235"/>
     <mergeCell ref="A201:C202"/>
+    <mergeCell ref="A524:C525"/>
+    <mergeCell ref="A491:C492"/>
+    <mergeCell ref="A331:C332"/>
+    <mergeCell ref="A459:C460"/>
+    <mergeCell ref="A426:C427"/>
+    <mergeCell ref="B410:E410"/>
+    <mergeCell ref="A394:C395"/>
+    <mergeCell ref="A361:C362"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions gridLines="1"/>
